--- a/user-lastresult.xlsx
+++ b/user-lastresult.xlsx
@@ -1,52 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="Sheet2" state="visible" r:id="rId5"/>
-    <sheet sheetId="3" name="Sheet3" state="visible" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>user</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>result</t>
   </si>
   <si>
-    <t>lassan</t>
-  </si>
-  <si>
-    <t>Raaju</t>
-  </si>
-  <si>
-    <t>Gopaal</t>
-  </si>
-  <si>
-    <t>Gosasapaal</t>
+    <t>user</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -76,13 +64,10 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -375,52 +360,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.3" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>1740</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>54543</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -430,11 +383,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.3" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -442,11 +395,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.3" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
